--- a/Stored Procedures/WebServices/04_تیر/SKerman_SPs/راهنمای وب سرویس‌ اطلاعات داشبورد جنوب کرمان14000503_بخش3.xlsx
+++ b/Stored Procedures/WebServices/04_تیر/SKerman_SPs/راهنمای وب سرویس‌ اطلاعات داشبورد جنوب کرمان14000503_بخش3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SQL-SP\Stored Procedures\WebServices\04_تیر\SKerman_SPs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D726C04F-350B-4315-92EB-930CC7330700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5F5DD1-0911-4D01-BA19-F17ADCB2BBE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -609,12 +609,84 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
@@ -635,78 +707,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1114,8 +1114,8 @@
   </sheetPr>
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:D15"/>
+    <sheetView rightToLeft="1" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1126,20 +1126,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="27"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="31"/>
     </row>
     <row r="3" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -1148,10 +1148,10 @@
       <c r="B3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="29"/>
+      <c r="D3" s="33"/>
     </row>
     <row r="4" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -1160,10 +1160,10 @@
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="31"/>
+      <c r="D4" s="35"/>
     </row>
     <row r="5" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -1180,30 +1180,30 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="34"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="38"/>
     </row>
     <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="45"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
       <c r="D7" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="17"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="41"/>
     </row>
     <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -1212,10 +1212,10 @@
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="19"/>
+      <c r="D9" s="43"/>
     </row>
     <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -1224,10 +1224,10 @@
       <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="19"/>
+      <c r="D10" s="43"/>
     </row>
     <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
@@ -1236,10 +1236,10 @@
       <c r="B11" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="21"/>
+      <c r="D11" s="45"/>
     </row>
     <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -1248,10 +1248,10 @@
       <c r="B12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="14"/>
+      <c r="D12" s="17"/>
     </row>
     <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -1260,10 +1260,10 @@
       <c r="B13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="14"/>
+      <c r="D13" s="17"/>
     </row>
     <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -1272,10 +1272,10 @@
       <c r="B14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="14"/>
+      <c r="D14" s="17"/>
     </row>
     <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
@@ -1284,33 +1284,38 @@
       <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="14"/>
+      <c r="D15" s="17"/>
     </row>
     <row r="16" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="37" t="s">
+      <c r="B16" s="19"/>
+      <c r="C16" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="38"/>
+      <c r="D16" s="21"/>
     </row>
     <row r="17" spans="1:4" ht="405" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="41" t="s">
+      <c r="B17" s="23"/>
+      <c r="C17" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="42"/>
+      <c r="D17" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A6:D6"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="A16:B16"/>
@@ -1319,11 +1324,6 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A6:D6"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>

--- a/Stored Procedures/WebServices/04_تیر/SKerman_SPs/راهنمای وب سرویس‌ اطلاعات داشبورد جنوب کرمان14000503_بخش3.xlsx
+++ b/Stored Procedures/WebServices/04_تیر/SKerman_SPs/راهنمای وب سرویس‌ اطلاعات داشبورد جنوب کرمان14000503_بخش3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SQL-SP\Stored Procedures\WebServices\04_تیر\SKerman_SPs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5F5DD1-0911-4D01-BA19-F17ADCB2BBE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B0C670D-6AE2-43CD-A207-B753C001D35A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -89,12 +89,6 @@
   </si>
   <si>
     <t>Json Array</t>
-  </si>
-  <si>
-    <t>لیست فیدرهای ناپایدار که در قالب کلاس و دارای فیلدهای زیر می‌باشد</t>
-  </si>
-  <si>
-    <t>نمایش گزارش تعادل بار</t>
   </si>
   <si>
     <t>Area</t>
@@ -177,6 +171,12 @@
   </si>
   <si>
     <t>یک Json خالی</t>
+  </si>
+  <si>
+    <t>لیست اطلاعات فیدر که در قالب کلاس و دارای فیلدهای زیر می‌باشد</t>
+  </si>
+  <si>
+    <t>نمایش اطلاعات مورد نیاز داشبورد بخش 3</t>
   </si>
 </sst>
 </file>
@@ -648,6 +648,27 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -685,27 +706,6 @@
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
@@ -1114,8 +1114,8 @@
   </sheetPr>
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:D8"/>
+    <sheetView rightToLeft="1" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1126,32 +1126,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="28"/>
+      <c r="A1" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="35"/>
     </row>
     <row r="2" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="31"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="38"/>
     </row>
     <row r="3" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="33"/>
+      <c r="C3" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="40"/>
     </row>
     <row r="4" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -1160,10 +1160,10 @@
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="35"/>
+      <c r="D4" s="42"/>
     </row>
     <row r="5" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -1180,16 +1180,16 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="38"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="45"/>
     </row>
     <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="15"/>
@@ -1198,12 +1198,12 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="41"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="28"/>
     </row>
     <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -1212,10 +1212,10 @@
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="43"/>
+      <c r="D9" s="30"/>
     </row>
     <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -1224,10 +1224,10 @@
       <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="43"/>
+      <c r="D10" s="30"/>
     </row>
     <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
@@ -1236,56 +1236,56 @@
       <c r="B11" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="45"/>
+      <c r="C11" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="32"/>
     </row>
     <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D12" s="17"/>
     </row>
     <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D13" s="17"/>
     </row>
     <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D14" s="17"/>
     </row>
     <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D15" s="17"/>
     </row>
@@ -1301,11 +1301,11 @@
     </row>
     <row r="17" spans="1:4" ht="405" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B17" s="23"/>
       <c r="C17" s="24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D17" s="25"/>
     </row>
